--- a/biology/Médecine/Charte_de_la_personne_hospitalisée/Charte_de_la_personne_hospitalisée.xlsx
+++ b/biology/Médecine/Charte_de_la_personne_hospitalisée/Charte_de_la_personne_hospitalisée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Charte_de_la_personne_hospitalis%C3%A9e</t>
+          <t>Charte_de_la_personne_hospitalisée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En France, la charte de la personne hospitalisée[1] a pour objectif de faire connaître à toute personne malade accueillie dans un établissement de santé ses droits essentiels, ainsi que les règles de vie à l'hôpital[2].
-La charte est publiée en annexe de la circulaire du 2 mars 2006[3] relative aux droits des personnes hospitalisées.
-Elle est une réactualisation de la charte du patient hospitalisé du 6 mai 1995, elle-même étant une actualisation d'une première charte du malade hospitalisé datant du 20 septembre 1974[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, la charte de la personne hospitalisée a pour objectif de faire connaître à toute personne malade accueillie dans un établissement de santé ses droits essentiels, ainsi que les règles de vie à l'hôpital.
+La charte est publiée en annexe de la circulaire du 2 mars 2006 relative aux droits des personnes hospitalisées.
+Elle est une réactualisation de la charte du patient hospitalisé du 6 mai 1995, elle-même étant une actualisation d'une première charte du malade hospitalisé datant du 20 septembre 1974.
 En 2017, onze ans après sa parution, la charte de la personne hospitalisée reste le document officiel d'information des droits des personnes hospitalisées.
 </t>
         </is>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Charte_de_la_personne_hospitalis%C3%A9e</t>
+          <t>Charte_de_la_personne_hospitalisée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,15 +526,17 @@
           <t>Contexte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La parution de textes législatifs majeurs depuis 1995 :
 loi du 9 juin 1999 visant à garantir le droit à l'accès aux soins palliatifs,
 loi du 4 mars 2002 relative aux droits des malades et à la qualité du système de santé,
 loi du 6 août 2004 relative à la bioéthique,
 loi du 9 août 2004 relative à la politique de santé publique,
-loi du 22 avril 2005 relative aux droits des malades et à la fin de vie[5],
-rend la charte précédente (1995) en décalage vis-à-vis du droit positif en vigueur, nécessitant une remise à jour en urgence de ce texte[6].
+loi du 22 avril 2005 relative aux droits des malades et à la fin de vie,
+rend la charte précédente (1995) en décalage vis-à-vis du droit positif en vigueur, nécessitant une remise à jour en urgence de ce texte.
 La circulaire du 2 mars 2006 publie la charte de la personne hospitalisée qui vient actualiser et remplacer celle de 1995.
 </t>
         </is>
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Charte_de_la_personne_hospitalis%C3%A9e</t>
+          <t>Charte_de_la_personne_hospitalisée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -554,13 +568,52 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Structure du document
-Charte de seize pages organisée en onze chapitres et dotée :
-d'un index[7],
-d'une annexe rappelant les principaux textes ayant servi à son élaboration[8],
-d'un résumé[9] comportant une note en bas de page : « Le document intégral de la charte de la personne hospitalisée est accessible sur le site internet : www.sante.gouv.fr. Il peut être également obtenu gratuitement, sans délai, sur simple demande, auprès du service chargé de l'accueil ».
-L'impératif de son accessibilité à tous
-En préambule de la charte, la circulaire précise la volonté de rendre ce document le plus accessible possible. 
+          <t>Structure du document</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Charte de seize pages organisée en onze chapitres et dotée :
+d'un index,
+d'une annexe rappelant les principaux textes ayant servi à son élaboration,
+d'un résumé comportant une note en bas de page : « Le document intégral de la charte de la personne hospitalisée est accessible sur le site internet : www.sante.gouv.fr. Il peut être également obtenu gratuitement, sans délai, sur simple demande, auprès du service chargé de l'accueil ».</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Charte_de_la_personne_hospitalisée</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charte_de_la_personne_hospitalis%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Présentation la charte</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>L'impératif de son accessibilité à tous</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>En préambule de la charte, la circulaire précise la volonté de rendre ce document le plus accessible possible. 
 Il appartient aux établissements de santé :
 d'intégrer le résumé de la charte dans le livret d'accueil remis au patient,
 d'assurer la publicité la plus efficace possible à la charte : affichage du résumé dans les halls d'accueil, salles d'attente, couloirs des services. Le résumé peut en outre être déposé, dans un format réduit, sur les tables de chevet des chambres des patients,
@@ -575,19 +628,122 @@
 chinois,
 espagnol,
 italien,
-portugais.
-A qui s'adresse la charte? Qui est une personne hospitalisée?
-L'introduction de la charte précise que l'expression "personne hospitalisée" désigne l'ensemble des personnes prises en charge par un établissement de santé :
+portugais.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Charte_de_la_personne_hospitalisée</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charte_de_la_personne_hospitalis%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Présentation la charte</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>A qui s'adresse la charte? Qui est une personne hospitalisée?</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>L'introduction de la charte précise que l'expression "personne hospitalisée" désigne l'ensemble des personnes prises en charge par un établissement de santé :
 en hospitalisation au sein de l'établissement,
 dans le cadre de l'hospitalisation à domicile,
 en consultation externe,
-dans le cadre des urgences.
-Des droits mais aussi des devoirs
-L'introduction de la charte ajoute que :
+dans le cadre des urgences.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Charte_de_la_personne_hospitalisée</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charte_de_la_personne_hospitalis%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Présentation la charte</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Des droits mais aussi des devoirs</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'introduction de la charte ajoute que :
 « son application s'interprète au regard des obligations nécessaires au bon fonctionnement de l'institution et auxquels sont soumis le personnel et les personnes hospitalisées. La personne hospitalisée doit pouvoir prendre connaissance du règlement intérieur qui précise ces obligations. Les dispositions qui la concernent (...) seront, si possible, intégrées dans le livret d'accueil.
 Le résumé de la charte est remis, dès son entrée dans l'établissement, à chaque personne hospitalisée ainsi qu'un questionnaire de sortie et un contrat d'engagement contre la douleur, annexés au livret d'accueil. »
-Nouveautés depuis 1995
-La charte reprend en les développant les chapitres de la charte de 1995 et apporte de nouvelles notions :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Charte_de_la_personne_hospitalisée</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charte_de_la_personne_hospitalis%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Présentation la charte</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Nouveautés depuis 1995</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La charte reprend en les développant les chapitres de la charte de 1995 et apporte de nouvelles notions :
 le droit à l'information,
 l'attention particulière à la fin de vie et le respect de la dignité,
 la désignation d'une personne de confiance,
@@ -596,11 +752,46 @@
 la possibilité de rédiger des directives anticipées,
 une plus grande information sur la recherche biomédicale et le consentement des personnes y participant,
 l'accès direct aux informations médicales le concernant,
-le droit de saisir la Commission des relations avec les usagers et de la qualité (CRUQ) et la description de la procédure d'indemnisation et de conciliation[10].
-En 2006, la personne hospitalisée n'est plus dénommée malade - comme dans la charte de 1974 -, ou patient - comme dans la charte de 1995 -. Elle reste un citoyen avec des droits qui s'inscrivent dans le contexte de la maladie et qui lui permettent d'être acteur de sa prise en charge[6].
-De plus, la parution de la charte s'accompagne d'une recommandation du Ministère aux établissements de santé : celle de délivrer à leurs personnels, en fonction des besoins, une formation sur les droits des malades et de leurs proches[11].
-Résumé de la charte
-Les principes généraux sont présentés dans le résumé[9] de la charte :
+le droit de saisir la Commission des relations avec les usagers et de la qualité (CRUQ) et la description de la procédure d'indemnisation et de conciliation.
+En 2006, la personne hospitalisée n'est plus dénommée malade - comme dans la charte de 1974 -, ou patient - comme dans la charte de 1995 -. Elle reste un citoyen avec des droits qui s'inscrivent dans le contexte de la maladie et qui lui permettent d'être acteur de sa prise en charge.
+De plus, la parution de la charte s'accompagne d'une recommandation du Ministère aux établissements de santé : celle de délivrer à leurs personnels, en fonction des besoins, une formation sur les droits des malades et de leurs proches.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Charte_de_la_personne_hospitalisée</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charte_de_la_personne_hospitalis%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Présentation la charte</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Résumé de la charte</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les principes généraux sont présentés dans le résumé de la charte :
 Toute personne est libre de choisir l'établissement de santé qui la prendra en charge, dans la limite des possibilités de chaque établissement. Le service public hospitalier est accessible à tous, en particulier aux personnes démunies et, en cas d'urgence, aux personnes sans couverture sociale. Il est adapté aux personnes handicapées.
 Les établissements de santé garantissent la qualité de l'accueil, des traitements et des soins. Ils sont attentifs au soulagement de la douleur et mettent tout en œuvre pour assurer à chacun une vie digne, avec une attention particulière à la fin de vie.
 L'information donnée au patient doit être accessible et loyale. La personne hospitalisée participe aux choix thérapeutiques qui la concernent. Elle peut se faire assister par une personne de confiance qu'elle choisit librement.
